--- a/вспомогательная_таб_для_циф_компетенций.xlsx
+++ b/вспомогательная_таб_для_циф_компетенций.xlsx
@@ -16,8 +16,9 @@
     <sheet name="универы" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'главная таблица'!$E$1:$E$140</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'главная таблица'!$C$1:$R$140</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'главная таблица'!$A$1:$S$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'главная таблица'!$E$1:$E$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'главная таблица'!$C$1:$R$140</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'главная таблица'!$E:$E</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -9684,8 +9685,8 @@
   </sheetPr>
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="30" sqref="D56:D57 D62 E20 F80 F85:F86 F91 F94:F95 F103 F139 H95 I3:I5 N26 N78 N80 N88 N92 N101:N104 N133:N140 P9 P26 P61 Q8:Q13 Q16:Q19 Q27:Q32 Q36:Q38 Q82:Q85 Q108 Q110:Q113 Q133:Q134 Q140 I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9975,7 +9976,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="337.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
@@ -10025,7 +10026,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" customFormat="false" ht="159" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="159" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
@@ -10075,7 +10076,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="299.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="299.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
@@ -10125,7 +10126,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
@@ -10175,7 +10176,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
@@ -10225,7 +10226,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -10275,7 +10276,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
@@ -10325,7 +10326,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
         <v>18</v>
       </c>
@@ -10375,7 +10376,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
@@ -10425,7 +10426,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
     </row>
-    <row r="15" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
@@ -10475,7 +10476,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
@@ -10525,7 +10526,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
         <v>18</v>
       </c>
@@ -10575,7 +10576,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -10625,7 +10626,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="350" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
         <v>18</v>
       </c>
@@ -10675,7 +10676,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="409.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="476.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
         <v>125</v>
@@ -10711,7 +10712,7 @@
       <c r="O20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="28"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="32" t="s">
         <v>132</v>
       </c>
@@ -16574,10 +16575,10 @@
       <c r="J148" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E140">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:S140">
+    <filterColumn colId="4">
       <customFilters and="true">
-        <customFilter operator="equal" val="Государственное и муниципальное управление"/>
+        <customFilter operator="equal" val="Безопасность сферы государственных услуг"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -16600,7 +16601,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="30" sqref="D56:D57 D62 E20 F80 F85:F86 F91 F94:F95 F103 F139 H95 I3:I5 N26 N78 N80 N88 N92 N101:N104 N133:N140 P9 P26 P61 Q8:Q13 Q16:Q19 Q27:Q32 Q36:Q38 Q82:Q85 Q108 Q110:Q113 Q133:Q134 Q140 A10"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8359375" defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17945,7 +17946,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="30" sqref="D56:D57 D62 E20 F80 F85:F86 F91 F94:F95 F103 F139 H95 I3:I5 N26 N78 N80 N88 N92 N101:N104 N133:N140 P9 P26 P61 Q8:Q13 Q16:Q19 Q27:Q32 Q36:Q38 Q82:Q85 Q108 Q110:Q113 Q133:Q134 Q140 H33"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18757,7 +18758,7 @@
   <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="30" sqref="D56:D57 D62 E20 F80 F85:F86 F91 F94:F95 F103 F139 H95 I3:I5 N26 N78 N80 N88 N92 N101:N104 N133:N140 P9 P26 P61 Q8:Q13 Q16:Q19 Q27:Q32 Q36:Q38 Q82:Q85 Q108 Q110:Q113 Q133:Q134 Q140 B88"/>
+      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20287,7 +20288,7 @@
   <dimension ref="A1:F1435"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A434" activeCellId="30" sqref="D56:D57 D62 E20 F80 F85:F86 F91 F94:F95 F103 F139 H95 I3:I5 N26 N78 N80 N88 N92 N101:N104 N133:N140 P9 P26 P61 Q8:Q13 Q16:Q19 Q27:Q32 Q36:Q38 Q82:Q85 Q108 Q110:Q113 Q133:Q134 Q140 A434"/>
+      <selection pane="topLeft" activeCell="A434" activeCellId="0" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27360,7 +27361,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="30" sqref="D56:D57 D62 E20 F80 F85:F86 F91 F94:F95 F103 F139 H95 I3:I5 N26 N78 N80 N88 N92 N101:N104 N133:N140 P9 P26 P61 Q8:Q13 Q16:Q19 Q27:Q32 Q36:Q38 Q82:Q85 Q108 Q110:Q113 Q133:Q134 Q140 D35"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8359375" defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
